--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H2">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I2">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J2">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N2">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O2">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P2">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q2">
-        <v>0.2905195341190001</v>
+        <v>0.4655737341028888</v>
       </c>
       <c r="R2">
-        <v>2.614675807071</v>
+        <v>4.190163606925999</v>
       </c>
       <c r="S2">
-        <v>0.004884463663218269</v>
+        <v>0.003825565198776012</v>
       </c>
       <c r="T2">
-        <v>0.004884463663218269</v>
+        <v>0.003825565198776012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H3">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I3">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J3">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.377195</v>
       </c>
       <c r="O3">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P3">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q3">
-        <v>1.687550797368334</v>
+        <v>3.990029104343333</v>
       </c>
       <c r="R3">
-        <v>15.187957176315</v>
+        <v>35.91026193909</v>
       </c>
       <c r="S3">
-        <v>0.02837255186497823</v>
+        <v>0.03278560486899375</v>
       </c>
       <c r="T3">
-        <v>0.02837255186497822</v>
+        <v>0.03278560486899375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H4">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I4">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J4">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N4">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O4">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P4">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q4">
-        <v>3.918661319458445</v>
+        <v>20.084200551404</v>
       </c>
       <c r="R4">
-        <v>35.267951875126</v>
+        <v>180.757804962636</v>
       </c>
       <c r="S4">
-        <v>0.06588389617723105</v>
+        <v>0.1650295389252122</v>
       </c>
       <c r="T4">
-        <v>0.06588389617723103</v>
+        <v>0.1650295389252122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H5">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I5">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J5">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N5">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O5">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P5">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q5">
-        <v>0.1145050980712222</v>
+        <v>0.3454851866888889</v>
       </c>
       <c r="R5">
-        <v>1.030545882641</v>
+        <v>3.1093666802</v>
       </c>
       <c r="S5">
-        <v>0.001925157950146771</v>
+        <v>0.002838811578226972</v>
       </c>
       <c r="T5">
-        <v>0.001925157950146772</v>
+        <v>0.002838811578226972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>1.875599</v>
       </c>
       <c r="I6">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J6">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N6">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O6">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P6">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q6">
-        <v>1.018088266393</v>
+        <v>0.6900480852918888</v>
       </c>
       <c r="R6">
-        <v>9.162794397536999</v>
+        <v>6.210432767626999</v>
       </c>
       <c r="S6">
-        <v>0.01711697341876009</v>
+        <v>0.005670044822570009</v>
       </c>
       <c r="T6">
-        <v>0.01711697341876009</v>
+        <v>0.005670044822570009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.875599</v>
       </c>
       <c r="I7">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J7">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>28.377195</v>
       </c>
       <c r="O7">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P7">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q7">
         <v>5.913804284978333</v>
@@ -883,10 +883,10 @@
         <v>53.22423856480499</v>
       </c>
       <c r="S7">
-        <v>0.09942795147650633</v>
+        <v>0.04859304167701584</v>
       </c>
       <c r="T7">
-        <v>0.09942795147650632</v>
+        <v>0.04859304167701583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.875599</v>
       </c>
       <c r="I8">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J8">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N8">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O8">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P8">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q8">
-        <v>13.73244357356911</v>
+        <v>29.76771050415799</v>
       </c>
       <c r="R8">
-        <v>123.591992162122</v>
+        <v>267.9093945374219</v>
       </c>
       <c r="S8">
-        <v>0.230881623315624</v>
+        <v>0.2445978134298692</v>
       </c>
       <c r="T8">
-        <v>0.230881623315624</v>
+        <v>0.2445978134298692</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.875599</v>
       </c>
       <c r="I9">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J9">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N9">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O9">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P9">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q9">
-        <v>0.4012683592585554</v>
+        <v>0.5120593669888889</v>
       </c>
       <c r="R9">
-        <v>3.611415233326999</v>
+        <v>4.6085343029</v>
       </c>
       <c r="S9">
-        <v>0.006746467930086924</v>
+        <v>0.004207532235113288</v>
       </c>
       <c r="T9">
-        <v>0.006746467930086925</v>
+        <v>0.004207532235113287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H10">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I10">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J10">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N10">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O10">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P10">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q10">
-        <v>0.189277343707</v>
+        <v>0.5181246249696666</v>
       </c>
       <c r="R10">
-        <v>1.703496093363</v>
+        <v>4.663121624727</v>
       </c>
       <c r="S10">
-        <v>0.003182293095749711</v>
+        <v>0.004257369754185475</v>
       </c>
       <c r="T10">
-        <v>0.003182293095749711</v>
+        <v>0.004257369754185474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H11">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I11">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J11">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>28.377195</v>
       </c>
       <c r="O11">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P11">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q11">
-        <v>1.099461808188333</v>
+        <v>4.440397260145001</v>
       </c>
       <c r="R11">
-        <v>9.895156273694999</v>
+        <v>39.963575341305</v>
       </c>
       <c r="S11">
-        <v>0.01848509521907894</v>
+        <v>0.03648622760019585</v>
       </c>
       <c r="T11">
-        <v>0.01848509521907894</v>
+        <v>0.03648622760019584</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H12">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I12">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J12">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N12">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O12">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P12">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q12">
-        <v>2.553060012586445</v>
+        <v>22.351172577558</v>
       </c>
       <c r="R12">
-        <v>22.977540113278</v>
+        <v>201.160553198022</v>
       </c>
       <c r="S12">
-        <v>0.04292423536789123</v>
+        <v>0.1836569842783407</v>
       </c>
       <c r="T12">
-        <v>0.04292423536789122</v>
+        <v>0.1836569842783406</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H13">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I13">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J13">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N13">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O13">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P13">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q13">
-        <v>0.07460159561922221</v>
+        <v>0.3844812747666667</v>
       </c>
       <c r="R13">
-        <v>0.6714143605729999</v>
+        <v>3.4603314729</v>
       </c>
       <c r="S13">
-        <v>0.001254266031112856</v>
+        <v>0.003159237896361541</v>
       </c>
       <c r="T13">
-        <v>0.001254266031112856</v>
+        <v>0.00315923789636154</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H14">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I14">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J14">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N14">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O14">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P14">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q14">
-        <v>1.376665484979</v>
+        <v>0.6031257470526666</v>
       </c>
       <c r="R14">
-        <v>12.389989364811</v>
+        <v>5.428131723474</v>
       </c>
       <c r="S14">
-        <v>0.02314568126435293</v>
+        <v>0.004955814083576648</v>
       </c>
       <c r="T14">
-        <v>0.02314568126435293</v>
+        <v>0.004955814083576646</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H15">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I15">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J15">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>28.377195</v>
       </c>
       <c r="O15">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P15">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q15">
-        <v>7.996684091935001</v>
+        <v>5.16886823299</v>
       </c>
       <c r="R15">
-        <v>71.970156827415</v>
+        <v>46.51981409691</v>
       </c>
       <c r="S15">
-        <v>0.1344471138291612</v>
+        <v>0.04247198881888709</v>
       </c>
       <c r="T15">
-        <v>0.1344471138291612</v>
+        <v>0.04247198881888708</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H16">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I16">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J16">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N16">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O16">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P16">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q16">
-        <v>18.56909829550733</v>
+        <v>26.01800225019599</v>
       </c>
       <c r="R16">
-        <v>167.121884659566</v>
+        <v>234.162020251764</v>
       </c>
       <c r="S16">
-        <v>0.3121996121816101</v>
+        <v>0.2137868970246279</v>
       </c>
       <c r="T16">
-        <v>0.3121996121816101</v>
+        <v>0.2137868970246278</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H17">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I17">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J17">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N17">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O17">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P17">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q17">
-        <v>0.5425976495756666</v>
+        <v>0.4475574888666667</v>
       </c>
       <c r="R17">
-        <v>4.883378846180999</v>
+        <v>4.0280173998</v>
       </c>
       <c r="S17">
-        <v>0.009122617214491299</v>
+        <v>0.003677527808047535</v>
       </c>
       <c r="T17">
-        <v>0.009122617214491301</v>
+        <v>0.003677527808047534</v>
       </c>
     </row>
   </sheetData>
